--- a/invalid_data/input/soil_data_エラー232検証用.xlsx
+++ b/invalid_data/input/soil_data_エラー232検証用.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86f1a29df5c25d6e/dev/minami/invalid_data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{C60CF321-0656-4AE7-8BF7-E35A44168CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC90890C-8AE3-4D86-A436-45E138B7544F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{C60CF321-0656-4AE7-8BF7-E35A44168CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0146BB30-1BFA-406E-90E9-8F035074C1D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="processed_data" sheetId="10" r:id="rId2"/>
+    <sheet name="processed_data" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -376,7 +376,7 @@
   </si>
   <si>
     <t>1:</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>2:</t>
@@ -407,13 +407,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -878,131 +894,137 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1022,13 +1044,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1037,8 +1056,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1082,6 +1104,8 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="42" xr:uid="{D1C9658F-BD3A-4EE8-9995-D503354FC84D}"/>
     <cellStyle name="標準 3" xfId="43" xr:uid="{BEEF58AB-7871-4103-A352-A4C6330E7935}"/>
+    <cellStyle name="標準 4" xfId="44" xr:uid="{B535A9D8-6FB8-4ACE-8E21-167A4CAF62DE}"/>
+    <cellStyle name="標準 5" xfId="45" xr:uid="{76297FFE-70E6-475F-944F-D6F4E6C75B2F}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1127,6 +1151,14 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1429,227 +1461,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BX1" sqref="BX1"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>12</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <v>13</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>14</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>15</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>16</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="5">
         <v>17</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="5">
         <v>18</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>19</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="5">
         <v>20</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="5">
         <v>21</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="5">
         <v>22</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="5">
         <v>23</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="5">
         <v>24</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="5">
         <v>25</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="5">
         <v>26</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="5">
         <v>27</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="5">
         <v>28</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="5">
         <v>29</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="5">
         <v>30</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="5">
         <v>31</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="5">
         <v>32</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="5">
         <v>33</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="5">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="5">
         <v>35</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="5">
         <v>36</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="5">
         <v>37</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="5">
         <v>38</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="5">
         <v>39</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="5">
         <v>40</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="5">
         <v>42</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="5">
         <v>43</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="5">
         <v>44</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="5">
         <v>45</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="5">
         <v>46</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="5">
         <v>47</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>48</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="5">
         <v>49</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="5">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6">
+      <c r="AZ1" s="5">
         <v>51</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="5">
         <v>52</v>
       </c>
-      <c r="BB1" s="6">
+      <c r="BB1" s="5">
         <v>53</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="5">
         <v>54</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="5">
         <v>55</v>
       </c>
-      <c r="BE1" s="6">
+      <c r="BE1" s="5">
         <v>56</v>
       </c>
-      <c r="BF1" s="6">
+      <c r="BF1" s="5">
         <v>57</v>
       </c>
-      <c r="BG1" s="6">
+      <c r="BG1" s="5">
         <v>58</v>
       </c>
-      <c r="BH1" s="6">
+      <c r="BH1" s="5">
         <v>59</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="5">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6">
+      <c r="BJ1" s="5">
         <v>61</v>
       </c>
-      <c r="BK1" s="6">
+      <c r="BK1" s="5">
         <v>62</v>
       </c>
-      <c r="BL1" s="6">
+      <c r="BL1" s="5">
         <v>63</v>
       </c>
-      <c r="BM1" s="6">
+      <c r="BM1" s="5">
         <v>64</v>
       </c>
-      <c r="BN1" s="6">
+      <c r="BN1" s="5">
         <v>65</v>
       </c>
-      <c r="BO1" s="6">
+      <c r="BO1" s="5">
         <v>66</v>
       </c>
-      <c r="BP1" s="6">
+      <c r="BP1" s="5">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6">
+      <c r="BQ1" s="5">
         <v>68</v>
       </c>
-      <c r="BR1" s="6">
+      <c r="BR1" s="5">
         <v>69</v>
       </c>
-      <c r="BS1" s="6">
+      <c r="BS1" s="5">
         <v>70</v>
       </c>
-      <c r="BT1" s="6">
+      <c r="BT1" s="5">
         <v>71</v>
       </c>
     </row>
@@ -1986,7 +2018,7 @@
       </c>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2236,7 +2268,7 @@
       <c r="DF3" s="4"/>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2486,7 +2518,7 @@
       <c r="DF4" s="4"/>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2736,7 +2768,7 @@
       <c r="DF5" s="4"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2986,7 +3018,7 @@
       <c r="DF6" s="4"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3236,7 +3268,7 @@
       <c r="DF7" s="4"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3486,7 +3518,7 @@
       <c r="DF8" s="4"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3736,7 +3768,7 @@
       <c r="DF9" s="4"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3986,7 +4018,7 @@
       <c r="DF10" s="4"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -22828,7 +22860,7 @@
       <c r="DF177" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20"/>
+  <phoneticPr fontId="22"/>
   <conditionalFormatting sqref="M3:BT177">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>232</formula>
@@ -22839,233 +22871,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED807D-1722-412F-9CC2-573FC774B948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE804BB-52B8-40CC-835D-9D872AFD0212}">
   <dimension ref="A1:DF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>12</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <v>13</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>14</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>15</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>16</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="5">
         <v>17</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="5">
         <v>18</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>19</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="5">
         <v>20</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="5">
         <v>21</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="5">
         <v>22</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="5">
         <v>23</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="5">
         <v>24</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="5">
         <v>25</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="5">
         <v>26</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="5">
         <v>27</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="5">
         <v>28</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="5">
         <v>29</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="5">
         <v>30</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="5">
         <v>31</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="5">
         <v>32</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="5">
         <v>33</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="5">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="5">
         <v>35</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="5">
         <v>36</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="5">
         <v>37</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="5">
         <v>38</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="5">
         <v>39</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="5">
         <v>40</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="5">
         <v>42</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="5">
         <v>43</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="5">
         <v>44</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="5">
         <v>45</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="5">
         <v>46</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="5">
         <v>47</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>48</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="5">
         <v>49</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="5">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6">
+      <c r="AZ1" s="5">
         <v>51</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="5">
         <v>52</v>
       </c>
-      <c r="BB1" s="6">
+      <c r="BB1" s="5">
         <v>53</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="5">
         <v>54</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="5">
         <v>55</v>
       </c>
-      <c r="BE1" s="6">
+      <c r="BE1" s="5">
         <v>56</v>
       </c>
-      <c r="BF1" s="6">
+      <c r="BF1" s="5">
         <v>57</v>
       </c>
-      <c r="BG1" s="6">
+      <c r="BG1" s="5">
         <v>58</v>
       </c>
-      <c r="BH1" s="6">
+      <c r="BH1" s="5">
         <v>59</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="5">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6">
+      <c r="BJ1" s="5">
         <v>61</v>
       </c>
-      <c r="BK1" s="6">
+      <c r="BK1" s="5">
         <v>62</v>
       </c>
-      <c r="BL1" s="6">
+      <c r="BL1" s="5">
         <v>63</v>
       </c>
-      <c r="BM1" s="6">
+      <c r="BM1" s="5">
         <v>64</v>
       </c>
-      <c r="BN1" s="6">
+      <c r="BN1" s="5">
         <v>65</v>
       </c>
-      <c r="BO1" s="6">
+      <c r="BO1" s="5">
         <v>66</v>
       </c>
-      <c r="BP1" s="6">
+      <c r="BP1" s="5">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6">
+      <c r="BQ1" s="5">
         <v>68</v>
       </c>
-      <c r="BR1" s="6">
+      <c r="BR1" s="5">
         <v>69</v>
       </c>
-      <c r="BS1" s="6">
+      <c r="BS1" s="5">
         <v>70</v>
       </c>
-      <c r="BT1" s="6">
+      <c r="BT1" s="5">
         <v>71</v>
       </c>
     </row>
@@ -23402,7 +23434,7 @@
       </c>
     </row>
     <row r="3" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -23652,7 +23684,7 @@
       <c r="DF3" s="4"/>
     </row>
     <row r="4" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -23902,7 +23934,7 @@
       <c r="DF4" s="4"/>
     </row>
     <row r="5" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>0.125</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -24152,7 +24184,7 @@
       <c r="DF5" s="4"/>
     </row>
     <row r="6" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -24402,7 +24434,7 @@
       <c r="DF6" s="4"/>
     </row>
     <row r="7" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>0.20833333333333334</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -24652,7 +24684,7 @@
       <c r="DF7" s="4"/>
     </row>
     <row r="8" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>0.25</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -24902,7 +24934,7 @@
       <c r="DF8" s="4"/>
     </row>
     <row r="9" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>0.29166666666666669</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -25152,7 +25184,7 @@
       <c r="DF9" s="4"/>
     </row>
     <row r="10" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -25402,7 +25434,7 @@
       <c r="DF10" s="4"/>
     </row>
     <row r="11" spans="1:110" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>0.375</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -25652,7 +25684,7 @@
       <c r="DF11" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20"/>
+  <phoneticPr fontId="22"/>
   <conditionalFormatting sqref="M3:BT11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>232</formula>
